--- a/Historique VL Euro Gov Bond.xlsx
+++ b/Historique VL Euro Gov Bond.xlsx
@@ -11,7 +11,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="oHQg7fMNdFXdP01hHlYdsEXhYURp9uKNHowsMBUvEV4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="ImdJCYzAqhe9TXo1/SpcUdvZ8rQ13gATyiNLDTNRFdQ="/>
     </ext>
   </extLst>
 </workbook>
